--- a/Code/Results/Cases/Case_7_26/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_26/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>29.75583610876401</v>
+        <v>29.75583610876398</v>
       </c>
       <c r="C2">
-        <v>16.3049201904455</v>
+        <v>16.30492019044545</v>
       </c>
       <c r="D2">
-        <v>2.526788881150722</v>
+        <v>2.526788881150517</v>
       </c>
       <c r="E2">
-        <v>5.468516088202736</v>
+        <v>5.468516088202604</v>
       </c>
       <c r="F2">
-        <v>46.11670662408929</v>
+        <v>46.11670662408926</v>
       </c>
       <c r="G2">
-        <v>2.128817910460929</v>
+        <v>2.128817910461063</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.738956694514797</v>
+        <v>5.738956694514796</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>7.910429346603228</v>
+        <v>7.910429346603198</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>15.17116011513694</v>
+        <v>15.17116011513696</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>28.07736486414845</v>
+        <v>28.0773648641484</v>
       </c>
       <c r="C3">
-        <v>15.11816875934208</v>
+        <v>15.11816875934212</v>
       </c>
       <c r="D3">
-        <v>2.361254188704697</v>
+        <v>2.361254188704641</v>
       </c>
       <c r="E3">
         <v>5.479778910547639</v>
       </c>
       <c r="F3">
-        <v>44.70208177676029</v>
+        <v>44.70208177676004</v>
       </c>
       <c r="G3">
-        <v>2.142405654779761</v>
+        <v>2.142405654779893</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.794161191034692</v>
+        <v>5.794161191034754</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>7.741090868585291</v>
+        <v>7.74109086858525</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>15.40141209984295</v>
+        <v>15.40141209984284</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>27.02476751551433</v>
+        <v>27.02476751551428</v>
       </c>
       <c r="C4">
-        <v>14.3564782622579</v>
+        <v>14.35647826225798</v>
       </c>
       <c r="D4">
-        <v>2.318686519545131</v>
+        <v>2.318686519545015</v>
       </c>
       <c r="E4">
-        <v>5.487561564834846</v>
+        <v>5.487561564834976</v>
       </c>
       <c r="F4">
-        <v>43.86175896807807</v>
+        <v>43.86175896807796</v>
       </c>
       <c r="G4">
-        <v>2.150910292052498</v>
+        <v>2.1509102920521</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.829105861584383</v>
+        <v>5.829105861584411</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>7.640969095137269</v>
+        <v>7.640969095137256</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>15.54709154927254</v>
+        <v>15.54709154927247</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>26.59061254274559</v>
+        <v>26.59061254274564</v>
       </c>
       <c r="C5">
-        <v>14.05099381043956</v>
+        <v>14.05099381043953</v>
       </c>
       <c r="D5">
-        <v>2.312774350326897</v>
+        <v>2.312774350326926</v>
       </c>
       <c r="E5">
-        <v>5.490943269041897</v>
+        <v>5.490943269041899</v>
       </c>
       <c r="F5">
-        <v>43.52640933766159</v>
+        <v>43.52640933766187</v>
       </c>
       <c r="G5">
-        <v>2.154420803650571</v>
+        <v>2.154420803650175</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.843618601101368</v>
+        <v>5.843618601101435</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>7.601138673893233</v>
+        <v>7.601138673893312</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>15.60752925729042</v>
+        <v>15.60752925729051</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>26.51821820446543</v>
+        <v>26.51821820446541</v>
       </c>
       <c r="C6">
-        <v>14.00062101218427</v>
+        <v>14.00062101218425</v>
       </c>
       <c r="D6">
-        <v>2.311848187300873</v>
+        <v>2.311848187300866</v>
       </c>
       <c r="E6">
-        <v>5.491517284492719</v>
+        <v>5.491517284492723</v>
       </c>
       <c r="F6">
-        <v>43.47115282591248</v>
+        <v>43.47115282591255</v>
       </c>
       <c r="G6">
-        <v>2.15500654142101</v>
+        <v>2.155006541421143</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.846045133121153</v>
+        <v>5.846045133121151</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>7.594583513812386</v>
+        <v>7.594583513812478</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>15.61762943306462</v>
+        <v>15.61762943306465</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>27.01893294876592</v>
+        <v>27.01893294876589</v>
       </c>
       <c r="C7">
-        <v>14.35221258579524</v>
+        <v>14.35221258579519</v>
       </c>
       <c r="D7">
-        <v>2.318603008560196</v>
+        <v>2.318603008560224</v>
       </c>
       <c r="E7">
-        <v>5.4876063301742</v>
+        <v>5.487606330174004</v>
       </c>
       <c r="F7">
-        <v>43.8572076304201</v>
+        <v>43.85720763041995</v>
       </c>
       <c r="G7">
-        <v>2.150957449430524</v>
+        <v>2.150957449430129</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.829300470981988</v>
+        <v>5.829300470981956</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>7.640427997789756</v>
+        <v>7.640427997789716</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>15.54790230243597</v>
+        <v>15.54790230243588</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>29.18182459308718</v>
+        <v>29.18182459308722</v>
       </c>
       <c r="C8">
-        <v>15.90248398090212</v>
+        <v>15.90248398090213</v>
       </c>
       <c r="D8">
-        <v>2.470200646505245</v>
+        <v>2.470200646505399</v>
       </c>
       <c r="E8">
-        <v>5.472214434255313</v>
+        <v>5.472214434255446</v>
       </c>
       <c r="F8">
-        <v>45.62305764130516</v>
+        <v>45.62305764130519</v>
       </c>
       <c r="G8">
-        <v>2.133472018098693</v>
+        <v>2.133472018098558</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.757778984398099</v>
+        <v>5.757778984398102</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>7.851241802307098</v>
+        <v>7.851241802307181</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>15.24965029208991</v>
+        <v>15.24965029208985</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>33.24050987540905</v>
+        <v>33.24050987540902</v>
       </c>
       <c r="C9">
-        <v>18.688745135835</v>
+        <v>18.68874513583487</v>
       </c>
       <c r="D9">
-        <v>2.871605079621764</v>
+        <v>2.871605079621742</v>
       </c>
       <c r="E9">
-        <v>5.449332418904886</v>
+        <v>5.449332418904884</v>
       </c>
       <c r="F9">
-        <v>49.3132750572732</v>
+        <v>49.31327505727334</v>
       </c>
       <c r="G9">
-        <v>2.100256516814301</v>
+        <v>2.100256516814701</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.625414721793095</v>
+        <v>5.625414721793157</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>8.29535821177353</v>
+        <v>8.29535821177358</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>14.69965051311516</v>
+        <v>14.69965051311536</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,19 +800,19 @@
         <v>36.10871639130092</v>
       </c>
       <c r="C10">
-        <v>20.59483338771901</v>
+        <v>20.59483338771906</v>
       </c>
       <c r="D10">
-        <v>3.159380241051743</v>
+        <v>3.159380241051526</v>
       </c>
       <c r="E10">
-        <v>5.437683431737506</v>
+        <v>5.437683431737439</v>
       </c>
       <c r="F10">
-        <v>52.17272787278808</v>
+        <v>52.17272787278805</v>
       </c>
       <c r="G10">
-        <v>2.076173487739454</v>
+        <v>2.076173487739319</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.532304806183327</v>
+        <v>5.532304806183387</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>8.641040609274093</v>
+        <v>8.641040609274043</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>14.31838594913858</v>
+        <v>14.3183859491386</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>37.39078408853081</v>
+        <v>37.39078408853082</v>
       </c>
       <c r="C11">
-        <v>21.43513952084828</v>
+        <v>21.43513952084826</v>
       </c>
       <c r="D11">
-        <v>3.289754837835645</v>
+        <v>3.289754837835623</v>
       </c>
       <c r="E11">
-        <v>5.433709491405281</v>
+        <v>5.433709491405283</v>
       </c>
       <c r="F11">
-        <v>53.50983807016827</v>
+        <v>53.50983807016825</v>
       </c>
       <c r="G11">
-        <v>2.065198359868743</v>
+        <v>2.065198359868872</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.490673999334891</v>
+        <v>5.490673999334856</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>8.802837364972635</v>
+        <v>8.802837364972662</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>14.1504626563497</v>
+        <v>14.15046265634967</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>37.87332758076553</v>
+        <v>37.8733275807655</v>
       </c>
       <c r="C12">
-        <v>21.74987016262728</v>
+        <v>21.74987016262726</v>
       </c>
       <c r="D12">
-        <v>3.339150802014611</v>
+        <v>3.339150802014756</v>
       </c>
       <c r="E12">
-        <v>5.432416914140836</v>
+        <v>5.43241691414077</v>
       </c>
       <c r="F12">
-        <v>54.02190496699976</v>
+        <v>54.02190496699983</v>
       </c>
       <c r="G12">
-        <v>2.061030739589697</v>
+        <v>2.061030739589955</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.474997447190956</v>
+        <v>5.47499744719089</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>8.864802401791041</v>
+        <v>8.864802401791014</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>14.08773761389295</v>
+        <v>14.087737613893</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>37.76952784844828</v>
+        <v>37.76952784844821</v>
       </c>
       <c r="C13">
-        <v>21.68223516580903</v>
+        <v>21.6822351658089</v>
       </c>
       <c r="D13">
-        <v>3.328509499177879</v>
+        <v>3.328509499177681</v>
       </c>
       <c r="E13">
-        <v>5.432685458040873</v>
+        <v>5.43268545804094</v>
       </c>
       <c r="F13">
-        <v>53.91135731195802</v>
+        <v>53.911357311958</v>
       </c>
       <c r="G13">
-        <v>2.061928980822193</v>
+        <v>2.061928980822457</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.478370034791557</v>
+        <v>5.478370034791643</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>14.10120679522339</v>
+        <v>14.10120679522345</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>37.43054002492561</v>
+        <v>37.43054002492551</v>
       </c>
       <c r="C14">
-        <v>21.46109986380677</v>
+        <v>21.46109986380676</v>
       </c>
       <c r="D14">
-        <v>3.29381749613615</v>
+        <v>3.293817496136191</v>
       </c>
       <c r="E14">
-        <v>5.433598755478748</v>
+        <v>5.433598755479071</v>
       </c>
       <c r="F14">
-        <v>53.55184771571172</v>
+        <v>53.55184771571177</v>
       </c>
       <c r="G14">
-        <v>2.064855774480959</v>
+        <v>2.064855774481488</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.489382614163718</v>
+        <v>5.489382614163867</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>8.807921011172743</v>
+        <v>8.807921011172825</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>14.1452844344853</v>
+        <v>14.14528443448557</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>37.22252795520078</v>
+        <v>37.22252795520083</v>
       </c>
       <c r="C15">
-        <v>21.32520779506088</v>
+        <v>21.32520779506089</v>
       </c>
       <c r="D15">
-        <v>3.272574398422792</v>
+        <v>3.272574398422969</v>
       </c>
       <c r="E15">
-        <v>5.434186541698681</v>
+        <v>5.434186541698814</v>
       </c>
       <c r="F15">
-        <v>53.33240220993933</v>
+        <v>53.33240220993932</v>
       </c>
       <c r="G15">
-        <v>2.06664672848985</v>
+        <v>2.066646728489848</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.496139096969618</v>
+        <v>5.496139096969624</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>8.781365577198743</v>
+        <v>8.781365577198766</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>14.17239822434149</v>
+        <v>14.17239822434148</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>36.02449758034608</v>
+        <v>36.02449758034614</v>
       </c>
       <c r="C16">
-        <v>20.5394092347828</v>
+        <v>20.53940923478293</v>
       </c>
       <c r="D16">
-        <v>3.150857557860477</v>
+        <v>3.150857557860499</v>
       </c>
       <c r="E16">
-        <v>5.437971560051201</v>
+        <v>5.437971560051066</v>
       </c>
       <c r="F16">
-        <v>52.08611528674695</v>
+        <v>52.08611528674689</v>
       </c>
       <c r="G16">
-        <v>2.076889625908577</v>
+        <v>2.076889625908433</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.535038739055005</v>
+        <v>5.535038739054947</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>8.630561535728795</v>
+        <v>8.630561535728756</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>14.32947669727589</v>
+        <v>14.32947669727579</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>35.28391577111122</v>
+        <v>35.28391577111119</v>
       </c>
       <c r="C17">
-        <v>20.05073631024062</v>
+        <v>20.05073631024064</v>
       </c>
       <c r="D17">
-        <v>3.076118592226341</v>
+        <v>3.076118592226197</v>
       </c>
       <c r="E17">
-        <v>5.440647059481145</v>
+        <v>5.440647059481144</v>
       </c>
       <c r="F17">
-        <v>51.3311740363347</v>
+        <v>51.3311740363346</v>
       </c>
       <c r="G17">
-        <v>2.08316247592799</v>
+        <v>2.083162475927721</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.559077337801872</v>
+        <v>5.55907733780193</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>8.539237463790304</v>
+        <v>8.539237463790265</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>14.42729596114071</v>
+        <v>14.42729596114074</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>34.85578997094845</v>
+        <v>34.85578997094849</v>
       </c>
       <c r="C18">
-        <v>19.76711773697975</v>
+        <v>19.76711773697986</v>
       </c>
       <c r="D18">
-        <v>3.033073116736894</v>
+        <v>3.033073116736905</v>
       </c>
       <c r="E18">
-        <v>5.442309140742775</v>
+        <v>5.442309140742837</v>
       </c>
       <c r="F18">
-        <v>50.90033196614534</v>
+        <v>50.90033196614523</v>
       </c>
       <c r="G18">
-        <v>2.086769203077093</v>
+        <v>2.08676920307696</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.572973062134716</v>
+        <v>5.572973062134748</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>8.487134573649909</v>
+        <v>8.487134573649895</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>14.48407286981533</v>
+        <v>14.4840728698152</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>34.71045499030305</v>
+        <v>34.71045499030308</v>
       </c>
       <c r="C19">
-        <v>19.67064145910466</v>
+        <v>19.6706414591046</v>
       </c>
       <c r="D19">
-        <v>3.018485922797325</v>
+        <v>3.018485922797296</v>
       </c>
       <c r="E19">
-        <v>5.442892462654736</v>
+        <v>5.442892462654738</v>
       </c>
       <c r="F19">
-        <v>50.75502397907968</v>
+        <v>50.75502397907974</v>
       </c>
       <c r="G19">
-        <v>2.087990408944135</v>
+        <v>2.08799040894387</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.577690286765087</v>
+        <v>5.577690286765068</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>8.469565258990508</v>
+        <v>8.469565258990549</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>14.50338298702626</v>
+        <v>14.50338298702627</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>35.36297393428614</v>
+        <v>35.36297393428615</v>
       </c>
       <c r="C20">
-        <v>20.10301743413885</v>
+        <v>20.10301743413874</v>
       </c>
       <c r="D20">
-        <v>3.084079956599349</v>
+        <v>3.084079956599288</v>
       </c>
       <c r="E20">
-        <v>5.440349353629543</v>
+        <v>5.440349353629345</v>
       </c>
       <c r="F20">
-        <v>51.41118583653741</v>
+        <v>51.41118583653744</v>
       </c>
       <c r="G20">
-        <v>2.082494908775729</v>
+        <v>2.082494908775594</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.556511320031833</v>
+        <v>5.556511320031777</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>8.54891489528522</v>
+        <v>8.548914895285211</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>37.53018578699589</v>
+        <v>37.5301857869959</v>
       </c>
       <c r="C21">
-        <v>21.52614365995883</v>
+        <v>21.52614365995871</v>
       </c>
       <c r="D21">
-        <v>3.304005759304614</v>
+        <v>3.30400575930446</v>
       </c>
       <c r="E21">
-        <v>5.433324541246428</v>
+        <v>5.433324541246362</v>
       </c>
       <c r="F21">
-        <v>53.65728392293067</v>
+        <v>53.65728392293062</v>
       </c>
       <c r="G21">
-        <v>2.063996495280563</v>
+        <v>2.063996495280555</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.486145700638432</v>
+        <v>5.486145700638527</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>8.820679961843499</v>
+        <v>8.820679961843519</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>14.13231364782204</v>
+        <v>14.13231364782213</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,19 +1364,19 @@
         <v>38.98293083791683</v>
       </c>
       <c r="C22">
-        <v>22.43620643948319</v>
+        <v>22.43620643948296</v>
       </c>
       <c r="D22">
-        <v>3.447953391744124</v>
+        <v>3.44795339174402</v>
       </c>
       <c r="E22">
-        <v>5.429984280146781</v>
+        <v>5.42998428014665</v>
       </c>
       <c r="F22">
-        <v>55.15901753846998</v>
+        <v>55.15901753846997</v>
       </c>
       <c r="G22">
-        <v>2.051834082555622</v>
+        <v>2.051834082555358</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.44066221834047</v>
+        <v>5.440662218340468</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.002384100829296</v>
+        <v>9.002384100829353</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>13.95145090945089</v>
+        <v>13.95145090945091</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>38.18481016360709</v>
+        <v>38.18481016360702</v>
       </c>
       <c r="C23">
-        <v>21.95218025617604</v>
+        <v>21.952180256176</v>
       </c>
       <c r="D23">
-        <v>3.371067123090449</v>
+        <v>3.371067123090335</v>
       </c>
       <c r="E23">
-        <v>5.43164416259093</v>
+        <v>5.431644162590868</v>
       </c>
       <c r="F23">
-        <v>54.3542088262131</v>
+        <v>54.35420882621302</v>
       </c>
       <c r="G23">
-        <v>2.058335315558373</v>
+        <v>2.058335315558502</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.464897385549023</v>
+        <v>5.464897385548931</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>8.905012347913425</v>
+        <v>8.905012347913404</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>14.04748625143923</v>
+        <v>14.04748625143924</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>35.32723909751703</v>
+        <v>35.32723909751694</v>
       </c>
       <c r="C24">
-        <v>20.07938949442361</v>
+        <v>20.07938949442348</v>
       </c>
       <c r="D24">
-        <v>3.080480871241903</v>
+        <v>3.080480871241789</v>
       </c>
       <c r="E24">
-        <v>5.440483562081069</v>
+        <v>5.440483562081202</v>
       </c>
       <c r="F24">
-        <v>51.37500262116883</v>
+        <v>51.37500262116874</v>
       </c>
       <c r="G24">
-        <v>2.082796714054793</v>
+        <v>2.082796714055056</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.55767117995916</v>
+        <v>5.557671179959187</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>8.544538483913714</v>
+        <v>8.544538483913747</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>14.4215596056528</v>
+        <v>14.4215596056529</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>32.16275838496879</v>
+        <v>32.16275838496882</v>
       </c>
       <c r="C25">
-        <v>17.96087606118445</v>
+        <v>17.96087606118451</v>
       </c>
       <c r="D25">
-        <v>2.764564157563389</v>
+        <v>2.764564157563361</v>
       </c>
       <c r="E25">
-        <v>5.454675410878299</v>
+        <v>5.454675410878427</v>
       </c>
       <c r="F25">
-        <v>48.2899326024647</v>
+        <v>48.2899326024648</v>
       </c>
       <c r="G25">
-        <v>2.109159116713994</v>
+        <v>2.109159116714129</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.660443248558628</v>
+        <v>5.66044324855872</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>8.171882332092045</v>
+        <v>8.171882332092094</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>14.84458065870358</v>
+        <v>14.84458065870362</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_7_26/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_26/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1210 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>29.75583610876398</v>
+        <v>22.74210793380031</v>
       </c>
       <c r="C2">
-        <v>16.30492019044545</v>
+        <v>13.36162215845699</v>
       </c>
       <c r="D2">
-        <v>2.526788881150517</v>
+        <v>4.184616993308408</v>
       </c>
       <c r="E2">
-        <v>5.468516088202604</v>
+        <v>7.170183655022745</v>
       </c>
       <c r="F2">
-        <v>46.11670662408926</v>
+        <v>28.48304365637403</v>
       </c>
       <c r="G2">
-        <v>2.128817910461063</v>
+        <v>37.4511911796118</v>
       </c>
       <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
+        <v>2.123361561172779</v>
       </c>
       <c r="J2">
-        <v>5.738956694514796</v>
+        <v>12.01439700915129</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>18.08077186528294</v>
       </c>
       <c r="L2">
-        <v>7.910429346603198</v>
+        <v>5.841215537882968</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>15.17116011513696</v>
+        <v>8.195606380276354</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>12.51173645194828</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>28.0773648641484</v>
+        <v>21.30890659275914</v>
       </c>
       <c r="C3">
-        <v>15.11816875934212</v>
+        <v>12.4983206545983</v>
       </c>
       <c r="D3">
-        <v>2.361254188704641</v>
+        <v>4.090148504752589</v>
       </c>
       <c r="E3">
-        <v>5.479778910547639</v>
+        <v>7.037338785755093</v>
       </c>
       <c r="F3">
-        <v>44.70208177676004</v>
+        <v>27.73688970634373</v>
       </c>
       <c r="G3">
-        <v>2.142405654779893</v>
+        <v>36.15129043928291</v>
       </c>
       <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
+        <v>2.415683678849373</v>
       </c>
       <c r="J3">
-        <v>5.794161191034754</v>
+        <v>11.87006765980814</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>17.96298310075782</v>
       </c>
       <c r="L3">
-        <v>7.74109086858525</v>
+        <v>5.783252528817792</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>15.40141209984284</v>
+        <v>7.902619127606073</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>12.68283183477421</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>27.02476751551428</v>
+        <v>20.38239656647047</v>
       </c>
       <c r="C4">
-        <v>14.35647826225798</v>
+        <v>11.93830097993693</v>
       </c>
       <c r="D4">
-        <v>2.318686519545015</v>
+        <v>4.031111872754893</v>
       </c>
       <c r="E4">
-        <v>5.487561564834976</v>
+        <v>6.953746472285864</v>
       </c>
       <c r="F4">
-        <v>43.86175896807796</v>
+        <v>27.28540008695318</v>
       </c>
       <c r="G4">
-        <v>2.1509102920521</v>
+        <v>35.35688206758608</v>
       </c>
       <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
+        <v>2.600969286360613</v>
       </c>
       <c r="J4">
-        <v>5.829105861584411</v>
+        <v>11.78712957295435</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>17.90121661116364</v>
       </c>
       <c r="L4">
-        <v>7.640969095137256</v>
+        <v>5.746540053861831</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>15.54709154927247</v>
+        <v>7.717390837481503</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>12.79004445588907</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>26.59061254274564</v>
+        <v>19.99325207193578</v>
       </c>
       <c r="C5">
-        <v>14.05099381043953</v>
+        <v>11.70253770946355</v>
       </c>
       <c r="D5">
-        <v>2.312774350326926</v>
+        <v>4.00680136350176</v>
       </c>
       <c r="E5">
-        <v>5.490943269041899</v>
+        <v>6.919161678231276</v>
       </c>
       <c r="F5">
-        <v>43.52640933766187</v>
+        <v>27.10325509441017</v>
       </c>
       <c r="G5">
-        <v>2.154420803650175</v>
+        <v>35.03447890377845</v>
       </c>
       <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
+        <v>2.677965434638727</v>
       </c>
       <c r="J5">
-        <v>5.843618601101435</v>
+        <v>11.75474326385395</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>17.87861801435822</v>
       </c>
       <c r="L5">
-        <v>7.601138673893312</v>
+        <v>5.731289226869469</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>15.60752925729051</v>
+        <v>7.640637475446793</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>12.83429318193783</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>26.51821820446541</v>
+        <v>19.92793940582347</v>
       </c>
       <c r="C6">
-        <v>14.00062101218425</v>
+        <v>11.66293294276778</v>
       </c>
       <c r="D6">
-        <v>2.311848187300866</v>
+        <v>4.002749594553253</v>
       </c>
       <c r="E6">
-        <v>5.491517284492723</v>
+        <v>6.913387174405136</v>
       </c>
       <c r="F6">
-        <v>43.47115282591255</v>
+        <v>27.07312617852692</v>
       </c>
       <c r="G6">
-        <v>2.155006541421143</v>
+        <v>34.98103583600738</v>
       </c>
       <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
+        <v>2.69084155271515</v>
       </c>
       <c r="J6">
-        <v>5.846045133121151</v>
+        <v>11.74945025585891</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>17.87501838992375</v>
       </c>
       <c r="L6">
-        <v>7.594583513812478</v>
+        <v>5.728739089817577</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>15.61762943306465</v>
+        <v>7.627818052490174</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>12.84167484487799</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>27.01893294876589</v>
+        <v>20.37719515160906</v>
       </c>
       <c r="C7">
-        <v>14.35221258579519</v>
+        <v>11.9351519867454</v>
       </c>
       <c r="D7">
-        <v>2.318603008560224</v>
+        <v>4.03078502531955</v>
       </c>
       <c r="E7">
-        <v>5.487606330174004</v>
+        <v>6.953282169997875</v>
       </c>
       <c r="F7">
-        <v>43.85720763041995</v>
+        <v>27.28293593934465</v>
       </c>
       <c r="G7">
-        <v>2.150957449430129</v>
+        <v>35.35252813517384</v>
       </c>
       <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
+        <v>2.602001605112873</v>
       </c>
       <c r="J7">
-        <v>5.829300470981956</v>
+        <v>11.78668710841674</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>17.90090153695944</v>
       </c>
       <c r="L7">
-        <v>7.640427997789716</v>
+        <v>5.74633556095062</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>15.54790230243588</v>
+        <v>7.71636076420053</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>12.79063892700701</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>29.18182459308722</v>
+        <v>22.25765078717724</v>
       </c>
       <c r="C8">
-        <v>15.90248398090213</v>
+        <v>13.07015722923449</v>
       </c>
       <c r="D8">
-        <v>2.470200646505399</v>
+        <v>4.15226240362138</v>
       </c>
       <c r="E8">
-        <v>5.472214434255446</v>
+        <v>7.124792046183831</v>
       </c>
       <c r="F8">
-        <v>45.62305764130519</v>
+        <v>28.22448886075695</v>
       </c>
       <c r="G8">
-        <v>2.133472018098558</v>
+        <v>37.00243289675215</v>
       </c>
       <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
+        <v>2.222970844635209</v>
       </c>
       <c r="J8">
-        <v>5.757778984398102</v>
+        <v>11.96344386153043</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>18.03791842549301</v>
       </c>
       <c r="L8">
-        <v>7.851241802307181</v>
+        <v>5.821458131800319</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>15.24965029208985</v>
+        <v>8.095730445508348</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>12.5702916027679</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>33.24050987540902</v>
+        <v>25.57304028669119</v>
       </c>
       <c r="C9">
-        <v>18.68874513583487</v>
+        <v>15.05957953943052</v>
       </c>
       <c r="D9">
-        <v>2.871605079621742</v>
+        <v>4.382052215123376</v>
       </c>
       <c r="E9">
-        <v>5.449332418904884</v>
+        <v>7.445618401985084</v>
       </c>
       <c r="F9">
-        <v>49.31327505727334</v>
+        <v>30.11657308872411</v>
       </c>
       <c r="G9">
-        <v>2.100256516814701</v>
+        <v>40.25217191008314</v>
       </c>
       <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
+        <v>1.596104574695977</v>
       </c>
       <c r="J9">
-        <v>5.625414721793157</v>
+        <v>12.35578510307904</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>18.39393228358347</v>
       </c>
       <c r="L9">
-        <v>8.29535821177358</v>
+        <v>5.960237560097743</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>14.69965051311536</v>
+        <v>8.794725267287248</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>12.15458199815678</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>36.10871639130092</v>
+        <v>27.71685680510628</v>
       </c>
       <c r="C10">
-        <v>20.59483338771906</v>
+        <v>16.3801917829803</v>
       </c>
       <c r="D10">
-        <v>3.159380241051526</v>
+        <v>4.528388292551665</v>
       </c>
       <c r="E10">
-        <v>5.437683431737439</v>
+        <v>7.630262817315465</v>
       </c>
       <c r="F10">
-        <v>52.17272787278805</v>
+        <v>31.34653993250768</v>
       </c>
       <c r="G10">
-        <v>2.076173487739319</v>
+        <v>42.36998875648125</v>
       </c>
       <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
+        <v>2.062776770738521</v>
       </c>
       <c r="J10">
-        <v>5.532304806183387</v>
+        <v>12.61955502482173</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>18.6157889602639</v>
       </c>
       <c r="L10">
-        <v>8.641040609274043</v>
+        <v>6.043572541358788</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>14.3183859491386</v>
+        <v>9.194144193190237</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>11.86562726727155</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>37.39078408853082</v>
+        <v>28.07944031950775</v>
       </c>
       <c r="C11">
-        <v>21.43513952084826</v>
+        <v>16.95757755534054</v>
       </c>
       <c r="D11">
-        <v>3.289754837835623</v>
+        <v>4.449355367078011</v>
       </c>
       <c r="E11">
-        <v>5.433709491405283</v>
+        <v>7.417618006445219</v>
       </c>
       <c r="F11">
-        <v>53.50983807016825</v>
+        <v>30.35613101779408</v>
       </c>
       <c r="G11">
-        <v>2.065198359868872</v>
+        <v>41.07850085054538</v>
       </c>
       <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
+        <v>2.966648378651469</v>
       </c>
       <c r="J11">
-        <v>5.490673999334856</v>
+        <v>12.28310268187747</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>17.88222865196626</v>
       </c>
       <c r="L11">
-        <v>8.802837364972662</v>
+        <v>6.001978253830029</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>14.15046265634967</v>
+        <v>8.655579131991924</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>11.82102381224225</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>37.8733275807655</v>
+        <v>27.92517209992154</v>
       </c>
       <c r="C12">
-        <v>21.74987016262726</v>
+        <v>17.17663878469824</v>
       </c>
       <c r="D12">
-        <v>3.339150802014756</v>
+        <v>4.355972136061286</v>
       </c>
       <c r="E12">
-        <v>5.43241691414077</v>
+        <v>7.3012703929341</v>
       </c>
       <c r="F12">
-        <v>54.02190496699983</v>
+        <v>29.23370296352262</v>
       </c>
       <c r="G12">
-        <v>2.061030739589955</v>
+        <v>39.50481397637103</v>
       </c>
       <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
+        <v>4.214103416515863</v>
       </c>
       <c r="J12">
-        <v>5.47499744719089</v>
+        <v>11.9334680864588</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>17.20340877382643</v>
       </c>
       <c r="L12">
-        <v>8.864802401791014</v>
+        <v>6.006836273557728</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>14.087737613893</v>
+        <v>8.123994078264824</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>11.86721217892273</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>37.76952784844821</v>
+        <v>27.35912997251092</v>
       </c>
       <c r="C13">
-        <v>21.6822351658089</v>
+        <v>17.14031399557418</v>
       </c>
       <c r="D13">
-        <v>3.328509499177681</v>
+        <v>4.244867188345345</v>
       </c>
       <c r="E13">
-        <v>5.43268545804094</v>
+        <v>7.252720839727754</v>
       </c>
       <c r="F13">
-        <v>53.911357311958</v>
+        <v>27.91913307460792</v>
       </c>
       <c r="G13">
-        <v>2.061928980822457</v>
+        <v>37.57473251485261</v>
       </c>
       <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
+        <v>5.51974196322384</v>
       </c>
       <c r="J13">
-        <v>5.478370034791643</v>
+        <v>11.54847838068892</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>16.52237856980893</v>
       </c>
       <c r="L13">
-        <v>8.851425304382149</v>
+        <v>6.04521827825554</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>14.10120679522345</v>
+        <v>7.560017285778055</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>11.97978214707851</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>37.43054002492551</v>
+        <v>26.76829450562279</v>
       </c>
       <c r="C14">
-        <v>21.46109986380676</v>
+        <v>16.99924527182865</v>
       </c>
       <c r="D14">
-        <v>3.293817496136191</v>
+        <v>4.159649626584745</v>
       </c>
       <c r="E14">
-        <v>5.433598755479071</v>
+        <v>7.263412280684934</v>
       </c>
       <c r="F14">
-        <v>53.55184771571177</v>
+        <v>26.90436809714335</v>
       </c>
       <c r="G14">
-        <v>2.064855774481488</v>
+        <v>36.04401028315063</v>
       </c>
       <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
+        <v>6.456610314661044</v>
       </c>
       <c r="J14">
-        <v>5.489382614163867</v>
+        <v>11.26276871345041</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>16.04779859398291</v>
       </c>
       <c r="L14">
-        <v>8.807921011172825</v>
+        <v>6.093156026530027</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>14.14528443448557</v>
+        <v>7.152113384975949</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>12.08836753647295</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>37.22252795520083</v>
+        <v>26.53415427001099</v>
       </c>
       <c r="C15">
-        <v>21.32520779506089</v>
+        <v>16.90969353719786</v>
       </c>
       <c r="D15">
-        <v>3.272574398422969</v>
+        <v>4.134557766384682</v>
       </c>
       <c r="E15">
-        <v>5.434186541698814</v>
+        <v>7.266245837948139</v>
       </c>
       <c r="F15">
-        <v>53.33240220993932</v>
+        <v>26.61879305751724</v>
       </c>
       <c r="G15">
-        <v>2.066646728489848</v>
+        <v>35.59657031120904</v>
       </c>
       <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
+        <v>6.671766315252721</v>
       </c>
       <c r="J15">
-        <v>5.496139096969624</v>
+        <v>11.18712504800547</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>15.93439433918352</v>
       </c>
       <c r="L15">
-        <v>8.781365577198766</v>
+        <v>6.104013357197012</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>14.17239822434148</v>
+        <v>7.044839359041998</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>12.12506621208256</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>36.02449758034614</v>
+        <v>25.70264115831429</v>
       </c>
       <c r="C16">
-        <v>20.53940923478293</v>
+        <v>16.37610268199147</v>
       </c>
       <c r="D16">
-        <v>3.150857557860499</v>
+        <v>4.092029865937593</v>
       </c>
       <c r="E16">
-        <v>5.437971560051066</v>
+        <v>7.190665583673031</v>
       </c>
       <c r="F16">
-        <v>52.08611528674689</v>
+        <v>26.30866042341547</v>
       </c>
       <c r="G16">
-        <v>2.076889625908433</v>
+        <v>34.97895459742593</v>
       </c>
       <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
+        <v>6.469781103236643</v>
       </c>
       <c r="J16">
-        <v>5.535038739054947</v>
+        <v>11.14364768563912</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>15.97103371960873</v>
       </c>
       <c r="L16">
-        <v>8.630561535728756</v>
+        <v>6.056188995234364</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>14.32947669727579</v>
+        <v>6.970942173280685</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>12.21016952247989</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>35.28391577111119</v>
+        <v>25.39641482963046</v>
       </c>
       <c r="C17">
-        <v>20.05073631024064</v>
+        <v>16.03629342150539</v>
       </c>
       <c r="D17">
-        <v>3.076118592226197</v>
+        <v>4.104799456860004</v>
       </c>
       <c r="E17">
-        <v>5.440647059481144</v>
+        <v>7.117527189218823</v>
       </c>
       <c r="F17">
-        <v>51.3311740363346</v>
+        <v>26.62571524186934</v>
       </c>
       <c r="G17">
-        <v>2.083162475927721</v>
+        <v>35.35058209771101</v>
       </c>
       <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
+        <v>5.73176217190769</v>
       </c>
       <c r="J17">
-        <v>5.55907733780193</v>
+        <v>11.26494553342252</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>16.25251095687919</v>
       </c>
       <c r="L17">
-        <v>8.539237463790265</v>
+        <v>5.989696496589532</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>14.42729596114074</v>
+        <v>7.132824941650945</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>12.21985383907385</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>34.85578997094849</v>
+        <v>25.49557364660315</v>
       </c>
       <c r="C18">
-        <v>19.76711773697986</v>
+        <v>15.8320777278907</v>
       </c>
       <c r="D18">
-        <v>3.033073116736905</v>
+        <v>4.169667897024008</v>
       </c>
       <c r="E18">
-        <v>5.442309140742837</v>
+        <v>7.091881702245469</v>
       </c>
       <c r="F18">
-        <v>50.90033196614523</v>
+        <v>27.50918726148648</v>
       </c>
       <c r="G18">
-        <v>2.08676920307696</v>
+        <v>36.60225302566981</v>
       </c>
       <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
+        <v>4.46473802434254</v>
       </c>
       <c r="J18">
-        <v>5.572973062134748</v>
+        <v>11.53796096924861</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>16.77398782287613</v>
       </c>
       <c r="L18">
-        <v>8.487134573649895</v>
+        <v>5.926712372978953</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>14.4840728698152</v>
+        <v>7.527902828433605</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>12.17514234008567</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>34.71045499030308</v>
+        <v>25.90884219295576</v>
       </c>
       <c r="C19">
-        <v>19.6706414591046</v>
+        <v>15.75564348972021</v>
       </c>
       <c r="D19">
-        <v>3.018485922797296</v>
+        <v>4.275751849034706</v>
       </c>
       <c r="E19">
-        <v>5.442892462654738</v>
+        <v>7.185640718065967</v>
       </c>
       <c r="F19">
-        <v>50.75502397907974</v>
+        <v>28.77047840251316</v>
       </c>
       <c r="G19">
-        <v>2.08799040894387</v>
+        <v>38.44293030535847</v>
       </c>
       <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
+        <v>2.965819714103474</v>
       </c>
       <c r="J19">
-        <v>5.577690286765068</v>
+        <v>11.91054547824218</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>17.45355260619641</v>
       </c>
       <c r="L19">
-        <v>8.469565258990549</v>
+        <v>5.911766907660218</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>14.50338298702627</v>
+        <v>8.093356659292123</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>12.10214196805538</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>35.36297393428615</v>
+        <v>27.16134922240232</v>
       </c>
       <c r="C20">
-        <v>20.10301743413874</v>
+        <v>16.04293471334329</v>
       </c>
       <c r="D20">
-        <v>3.084079956599288</v>
+        <v>4.489506135773702</v>
       </c>
       <c r="E20">
-        <v>5.440349353629345</v>
+        <v>7.580198442212613</v>
       </c>
       <c r="F20">
-        <v>51.41118583653744</v>
+        <v>31.01399857028793</v>
       </c>
       <c r="G20">
-        <v>2.082494908775594</v>
+        <v>41.80210432444216</v>
       </c>
       <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
+        <v>1.939931814975498</v>
       </c>
       <c r="J20">
-        <v>5.556511320031777</v>
+        <v>12.54594247991261</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>18.54912981736027</v>
       </c>
       <c r="L20">
-        <v>8.548914895285211</v>
+        <v>6.02124557003502</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>14.41682930524154</v>
+        <v>9.087232854356142</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>11.94103221181744</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>37.5301857869959</v>
+        <v>28.8864271739174</v>
       </c>
       <c r="C21">
-        <v>21.52614365995871</v>
+        <v>17.01106496079213</v>
       </c>
       <c r="D21">
-        <v>3.30400575930446</v>
+        <v>4.626732307437736</v>
       </c>
       <c r="E21">
-        <v>5.433324541246362</v>
+        <v>7.785531572249738</v>
       </c>
       <c r="F21">
-        <v>53.65728392293062</v>
+        <v>32.23990179538255</v>
       </c>
       <c r="G21">
-        <v>2.063996495280555</v>
+        <v>43.82514413848968</v>
       </c>
       <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
+        <v>2.308179764495124</v>
       </c>
       <c r="J21">
-        <v>5.486145700638527</v>
+        <v>12.83990019968384</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>18.89014179077675</v>
       </c>
       <c r="L21">
-        <v>8.820679961843519</v>
+        <v>6.105657842824327</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>14.13231364782213</v>
+        <v>9.51369394154931</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>11.71036620034085</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>38.98293083791683</v>
+        <v>29.94347666550487</v>
       </c>
       <c r="C22">
-        <v>22.43620643948296</v>
+        <v>17.61928668093938</v>
       </c>
       <c r="D22">
-        <v>3.44795339174402</v>
+        <v>4.706648136968279</v>
       </c>
       <c r="E22">
-        <v>5.42998428014665</v>
+        <v>7.896627706147188</v>
       </c>
       <c r="F22">
-        <v>55.15901753846997</v>
+        <v>32.95048376354928</v>
       </c>
       <c r="G22">
-        <v>2.051834082555358</v>
+        <v>45.00780958575007</v>
       </c>
       <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
+        <v>2.539096589695572</v>
       </c>
       <c r="J22">
-        <v>5.440662218340468</v>
+        <v>13.01024174610964</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>19.07496177058142</v>
       </c>
       <c r="L22">
-        <v>9.002384100829353</v>
+        <v>6.152952216366629</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>13.95145090945091</v>
+        <v>9.743182344481772</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>11.56458948748122</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>38.18481016360702</v>
+        <v>29.38345460797165</v>
       </c>
       <c r="C23">
-        <v>21.952180256176</v>
+        <v>17.29692758599855</v>
       </c>
       <c r="D23">
-        <v>3.371067123090335</v>
+        <v>4.664082278994349</v>
       </c>
       <c r="E23">
-        <v>5.431644162590868</v>
+        <v>7.837439363171598</v>
       </c>
       <c r="F23">
-        <v>54.35420882621302</v>
+        <v>32.57112813957303</v>
       </c>
       <c r="G23">
-        <v>2.058335315558502</v>
+        <v>44.37713215074842</v>
       </c>
       <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
+        <v>2.416171130863986</v>
       </c>
       <c r="J23">
-        <v>5.464897385548931</v>
+        <v>12.91882920685977</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>18.97521479952788</v>
       </c>
       <c r="L23">
-        <v>8.905012347913404</v>
+        <v>6.127766683439232</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>14.04748625143924</v>
+        <v>9.621266884301107</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>11.64228295933398</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>35.32723909751694</v>
+        <v>27.18876676289617</v>
       </c>
       <c r="C24">
-        <v>20.07938949442348</v>
+        <v>16.02605683210476</v>
       </c>
       <c r="D24">
-        <v>3.080480871241789</v>
+        <v>4.50094749704455</v>
       </c>
       <c r="E24">
-        <v>5.440483562081202</v>
+        <v>7.610822423696637</v>
       </c>
       <c r="F24">
-        <v>51.37500262116874</v>
+        <v>31.13723465169375</v>
       </c>
       <c r="G24">
-        <v>2.082796714055056</v>
+        <v>41.97771935508825</v>
       </c>
       <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
+        <v>1.943321405510106</v>
       </c>
       <c r="J24">
-        <v>5.557671179959187</v>
+        <v>12.58349927696474</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>18.62129474724313</v>
       </c>
       <c r="L24">
-        <v>8.544538483913747</v>
+        <v>6.031071829646473</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>14.4215596056529</v>
+        <v>9.147230090518889</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>11.93907845511056</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>32.16275838496882</v>
+        <v>24.71628278045983</v>
       </c>
       <c r="C25">
-        <v>17.96087606118451</v>
+        <v>14.54647117788944</v>
       </c>
       <c r="D25">
-        <v>2.764564157563361</v>
+        <v>4.320815830797993</v>
       </c>
       <c r="E25">
-        <v>5.454675410878427</v>
+        <v>7.360400065015077</v>
       </c>
       <c r="F25">
-        <v>48.2899326024648</v>
+        <v>29.60076690425601</v>
       </c>
       <c r="G25">
-        <v>2.109159116714129</v>
+        <v>39.37349710848814</v>
       </c>
       <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
+        <v>1.708665933454054</v>
       </c>
       <c r="J25">
-        <v>5.66044324855872</v>
+        <v>12.24466436757475</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>18.2877769328448</v>
       </c>
       <c r="L25">
-        <v>8.171882332092094</v>
+        <v>5.92355266683526</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>14.84458065870362</v>
+        <v>8.61077466080101</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>12.26539681224376</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_7_26/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_26/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1204 +421,1354 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>22.74210793380031</v>
+        <v>22.09899624166179</v>
       </c>
       <c r="C2">
-        <v>13.36162215845699</v>
+        <v>13.84833591160619</v>
       </c>
       <c r="D2">
-        <v>4.184616993308408</v>
+        <v>4.309593381367462</v>
       </c>
       <c r="E2">
-        <v>7.170183655022745</v>
+        <v>7.11747008646922</v>
       </c>
       <c r="F2">
-        <v>28.48304365637403</v>
+        <v>27.25712952639</v>
       </c>
       <c r="G2">
-        <v>37.4511911796118</v>
+        <v>34.92777906721957</v>
       </c>
       <c r="H2">
-        <v>2.123361561172779</v>
+        <v>2.048966617615413</v>
       </c>
       <c r="J2">
-        <v>12.01439700915129</v>
+        <v>11.90212820989709</v>
       </c>
       <c r="K2">
-        <v>18.08077186528294</v>
+        <v>17.03367822264472</v>
       </c>
       <c r="L2">
-        <v>5.841215537882968</v>
+        <v>14.22295184154927</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>11.09887330068795</v>
       </c>
       <c r="N2">
-        <v>8.195606380276354</v>
+        <v>5.776427913442869</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>12.51173645194828</v>
+        <v>8.399587302827523</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>12.43515239176178</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>21.30890659275914</v>
+        <v>20.72469541655941</v>
       </c>
       <c r="C3">
-        <v>12.4983206545983</v>
+        <v>12.90732053460574</v>
       </c>
       <c r="D3">
-        <v>4.090148504752589</v>
+        <v>4.218521529204713</v>
       </c>
       <c r="E3">
-        <v>7.037338785755093</v>
+        <v>7.003973279458729</v>
       </c>
       <c r="F3">
-        <v>27.73688970634373</v>
+        <v>26.61021063982217</v>
       </c>
       <c r="G3">
-        <v>36.15129043928291</v>
+        <v>33.83664122670277</v>
       </c>
       <c r="H3">
-        <v>2.415683678849373</v>
+        <v>2.310782251489229</v>
       </c>
       <c r="J3">
-        <v>11.87006765980814</v>
+        <v>11.74503038517679</v>
       </c>
       <c r="K3">
-        <v>17.96298310075782</v>
+        <v>16.98059736695354</v>
       </c>
       <c r="L3">
-        <v>5.783252528817792</v>
+        <v>14.28411698404332</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>10.95109174777243</v>
       </c>
       <c r="N3">
-        <v>7.902619127606073</v>
+        <v>5.72482170533246</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>12.68283183477421</v>
+        <v>8.105284132503252</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>12.5732401387776</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>20.38239656647047</v>
+        <v>19.83402806108363</v>
       </c>
       <c r="C4">
-        <v>11.93830097993693</v>
+        <v>12.2960253432273</v>
       </c>
       <c r="D4">
-        <v>4.031111872754893</v>
+        <v>4.161914339508154</v>
       </c>
       <c r="E4">
-        <v>6.953746472285864</v>
+        <v>6.932554084329253</v>
       </c>
       <c r="F4">
-        <v>27.28540008695318</v>
+        <v>26.21782795174326</v>
       </c>
       <c r="G4">
-        <v>35.35688206758608</v>
+        <v>33.17442834166594</v>
       </c>
       <c r="H4">
-        <v>2.600969286360613</v>
+        <v>2.476920729354568</v>
       </c>
       <c r="J4">
-        <v>11.78712957295435</v>
+        <v>11.65023058974718</v>
       </c>
       <c r="K4">
-        <v>17.90121661116364</v>
+        <v>16.95596939653186</v>
       </c>
       <c r="L4">
-        <v>5.746540053861831</v>
+        <v>14.32228380071403</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>10.88662351449066</v>
       </c>
       <c r="N4">
-        <v>7.717390837481503</v>
+        <v>5.692075782580082</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>12.79004445588907</v>
+        <v>7.9196235051337</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>12.6606287600704</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.99325207193578</v>
+        <v>19.45936799237289</v>
       </c>
       <c r="C5">
-        <v>11.70253770946355</v>
+        <v>12.03846241546388</v>
       </c>
       <c r="D5">
-        <v>4.00680136350176</v>
+        <v>4.138686828971851</v>
       </c>
       <c r="E5">
-        <v>6.919161678231276</v>
+        <v>6.903005686302496</v>
       </c>
       <c r="F5">
-        <v>27.10325509441017</v>
+        <v>26.05926504347224</v>
       </c>
       <c r="G5">
-        <v>35.03447890377845</v>
+        <v>32.9067794378747</v>
       </c>
       <c r="H5">
-        <v>2.677965434638727</v>
+        <v>2.546002890138044</v>
       </c>
       <c r="J5">
-        <v>11.75474326385395</v>
+        <v>11.61202568083979</v>
       </c>
       <c r="K5">
-        <v>17.87861801435822</v>
+        <v>16.94785932973815</v>
       </c>
       <c r="L5">
-        <v>5.731289226869469</v>
+        <v>14.33798214437227</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>10.86695280504152</v>
       </c>
       <c r="N5">
-        <v>7.640637475446793</v>
+        <v>5.678458461666283</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>12.83429318193783</v>
+        <v>7.842798878334188</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>12.69689852114318</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19.92793940582347</v>
+        <v>19.39645168403077</v>
       </c>
       <c r="C6">
-        <v>11.66293294276778</v>
+        <v>11.99518288321102</v>
       </c>
       <c r="D6">
-        <v>4.002749594553253</v>
+        <v>4.134820693331889</v>
       </c>
       <c r="E6">
-        <v>6.913387174405136</v>
+        <v>6.898072100056556</v>
       </c>
       <c r="F6">
-        <v>27.07312617852692</v>
+        <v>26.03302007621872</v>
       </c>
       <c r="G6">
-        <v>34.98103583600738</v>
+        <v>32.86247762532697</v>
       </c>
       <c r="H6">
-        <v>2.69084155271515</v>
+        <v>2.557557979554621</v>
       </c>
       <c r="J6">
-        <v>11.74945025585891</v>
+        <v>11.60570783157348</v>
       </c>
       <c r="K6">
-        <v>17.87501838992375</v>
+        <v>16.94662674531256</v>
       </c>
       <c r="L6">
-        <v>5.728739089817577</v>
+        <v>14.34059736077001</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>10.86408403661652</v>
       </c>
       <c r="N6">
-        <v>7.627818052490174</v>
+        <v>5.676180632073666</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>12.84167484487799</v>
+        <v>7.829974270303413</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>12.70296095979682</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>20.37719515160906</v>
+        <v>19.81971721213168</v>
       </c>
       <c r="C7">
-        <v>11.9351519867454</v>
+        <v>12.27795185966335</v>
       </c>
       <c r="D7">
-        <v>4.03078502531955</v>
+        <v>4.16495017816625</v>
       </c>
       <c r="E7">
-        <v>6.953282169997875</v>
+        <v>6.93298569216594</v>
       </c>
       <c r="F7">
-        <v>27.28293593934465</v>
+        <v>26.19472064521549</v>
       </c>
       <c r="G7">
-        <v>35.35252813517384</v>
+        <v>33.25006154108332</v>
       </c>
       <c r="H7">
-        <v>2.602001605112873</v>
+        <v>2.478772496915787</v>
       </c>
       <c r="J7">
-        <v>11.78668710841674</v>
+        <v>11.5969677969347</v>
       </c>
       <c r="K7">
-        <v>17.90090153695944</v>
+        <v>16.94544307518396</v>
       </c>
       <c r="L7">
-        <v>5.74633556095062</v>
+        <v>14.3135614125697</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>10.87943957964803</v>
       </c>
       <c r="N7">
-        <v>7.71636076420053</v>
+        <v>5.691600374069671</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>12.79063892700701</v>
+        <v>7.917238187965274</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>12.66172662719534</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>22.25765078717724</v>
+        <v>21.60626417269479</v>
       </c>
       <c r="C8">
-        <v>13.07015722923449</v>
+        <v>13.48596493756281</v>
       </c>
       <c r="D8">
-        <v>4.15226240362138</v>
+        <v>4.289320988042403</v>
       </c>
       <c r="E8">
-        <v>7.124792046183831</v>
+        <v>7.081483717953205</v>
       </c>
       <c r="F8">
-        <v>28.22448886075695</v>
+        <v>26.96563592786648</v>
       </c>
       <c r="G8">
-        <v>37.00243289675215</v>
+        <v>34.80415639137016</v>
       </c>
       <c r="H8">
-        <v>2.222970844635209</v>
+        <v>2.141023797413076</v>
       </c>
       <c r="J8">
-        <v>11.96344386153043</v>
+        <v>11.67613596559089</v>
       </c>
       <c r="K8">
-        <v>18.03791842549301</v>
+        <v>16.97954353536183</v>
       </c>
       <c r="L8">
-        <v>5.821458131800319</v>
+        <v>14.21622827552333</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>11.01789963468727</v>
       </c>
       <c r="N8">
-        <v>8.095730445508348</v>
+        <v>5.757950351172197</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>12.5702916027679</v>
+        <v>8.294885054956231</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>12.48478018488004</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>25.57304028669119</v>
+        <v>24.7703631509816</v>
       </c>
       <c r="C9">
-        <v>15.05957953943052</v>
+        <v>15.64427950470507</v>
       </c>
       <c r="D9">
-        <v>4.382052215123376</v>
+        <v>4.514787772297519</v>
       </c>
       <c r="E9">
-        <v>7.445618401985084</v>
+        <v>7.356307788178307</v>
       </c>
       <c r="F9">
-        <v>30.11657308872411</v>
+        <v>28.58803800759964</v>
       </c>
       <c r="G9">
-        <v>40.25217191008314</v>
+        <v>37.60750718867279</v>
       </c>
       <c r="H9">
-        <v>1.596104574695977</v>
+        <v>1.603243088583321</v>
       </c>
       <c r="J9">
-        <v>12.35578510307904</v>
+        <v>12.03622086843103</v>
       </c>
       <c r="K9">
-        <v>18.39393228358347</v>
+        <v>17.15110532375518</v>
       </c>
       <c r="L9">
-        <v>5.960237560097743</v>
+        <v>14.06323014410835</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>11.5213811753043</v>
       </c>
       <c r="N9">
-        <v>8.794725267287248</v>
+        <v>5.881030975391802</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>12.15458199815678</v>
+        <v>8.998028336722744</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>12.15614405283875</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.71685680510628</v>
+        <v>26.78593093049398</v>
       </c>
       <c r="C10">
-        <v>16.3801917829803</v>
+        <v>17.00055579516177</v>
       </c>
       <c r="D10">
-        <v>4.528388292551665</v>
+        <v>4.674942903769741</v>
       </c>
       <c r="E10">
-        <v>7.630262817315465</v>
+        <v>7.515246559578256</v>
       </c>
       <c r="F10">
-        <v>31.34653993250768</v>
+        <v>29.52337638290675</v>
       </c>
       <c r="G10">
-        <v>42.36998875648125</v>
+        <v>39.84443734166714</v>
       </c>
       <c r="H10">
-        <v>2.062776770738521</v>
+        <v>2.015036934303669</v>
       </c>
       <c r="J10">
-        <v>12.61955502482173</v>
+        <v>11.97969623755241</v>
       </c>
       <c r="K10">
-        <v>18.6157889602639</v>
+        <v>17.18208763177564</v>
       </c>
       <c r="L10">
-        <v>6.043572541358788</v>
+        <v>13.85356669352923</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>11.89766077214745</v>
       </c>
       <c r="N10">
-        <v>9.194144193190237</v>
+        <v>5.954940080505118</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>11.86562726727155</v>
+        <v>9.392986733523978</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>11.94490012520754</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.07944031950775</v>
+        <v>27.0754749212631</v>
       </c>
       <c r="C11">
-        <v>16.95757755534054</v>
+        <v>17.42065211879282</v>
       </c>
       <c r="D11">
-        <v>4.449355367078011</v>
+        <v>4.610239793907493</v>
       </c>
       <c r="E11">
-        <v>7.417618006445219</v>
+        <v>7.310218500026701</v>
       </c>
       <c r="F11">
-        <v>30.35613101779408</v>
+        <v>28.35732329861034</v>
       </c>
       <c r="G11">
-        <v>41.07850085054538</v>
+        <v>39.5042244425636</v>
       </c>
       <c r="H11">
-        <v>2.966648378651469</v>
+        <v>2.918532599950235</v>
       </c>
       <c r="J11">
-        <v>12.28310268187747</v>
+        <v>11.09863480823496</v>
       </c>
       <c r="K11">
-        <v>17.88222865196626</v>
+        <v>16.39580638584767</v>
       </c>
       <c r="L11">
-        <v>6.001978253830029</v>
+        <v>13.19001131172181</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>11.4239649829065</v>
       </c>
       <c r="N11">
-        <v>8.655579131991924</v>
+        <v>5.934350947361406</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>11.82102381224225</v>
+        <v>8.825317767083057</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>11.98234849893018</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.92517209992154</v>
+        <v>26.91902205788213</v>
       </c>
       <c r="C12">
-        <v>17.17663878469824</v>
+        <v>17.53809571798515</v>
       </c>
       <c r="D12">
-        <v>4.355972136061286</v>
+        <v>4.511716715832615</v>
       </c>
       <c r="E12">
-        <v>7.3012703929341</v>
+        <v>7.19745741733243</v>
       </c>
       <c r="F12">
-        <v>29.23370296352262</v>
+        <v>27.21889042875839</v>
       </c>
       <c r="G12">
-        <v>39.50481397637103</v>
+        <v>38.46856654896115</v>
       </c>
       <c r="H12">
-        <v>4.214103416515863</v>
+        <v>4.178958337812561</v>
       </c>
       <c r="J12">
-        <v>11.9334680864588</v>
+        <v>10.54992967002442</v>
       </c>
       <c r="K12">
-        <v>17.20340877382643</v>
+        <v>15.75580390916805</v>
       </c>
       <c r="L12">
-        <v>6.006836273557728</v>
+        <v>12.70924525643363</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>10.95471411736637</v>
       </c>
       <c r="N12">
-        <v>8.123994078264824</v>
+        <v>5.958368930274753</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>11.86721217892273</v>
+        <v>8.273574672031101</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>12.07614296891052</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.35912997251092</v>
+        <v>26.42351824328377</v>
       </c>
       <c r="C13">
-        <v>17.14031399557418</v>
+        <v>17.46188826009752</v>
       </c>
       <c r="D13">
-        <v>4.244867188345345</v>
+        <v>4.375547956015019</v>
       </c>
       <c r="E13">
-        <v>7.252720839727754</v>
+        <v>7.155524290065915</v>
       </c>
       <c r="F13">
-        <v>27.91913307460792</v>
+        <v>26.0566990156956</v>
       </c>
       <c r="G13">
-        <v>37.57473251485261</v>
+        <v>36.62223938055324</v>
       </c>
       <c r="H13">
-        <v>5.51974196322384</v>
+        <v>5.497692933196151</v>
       </c>
       <c r="J13">
-        <v>11.54847838068892</v>
+        <v>10.30943244578215</v>
       </c>
       <c r="K13">
-        <v>16.52237856980893</v>
+        <v>15.20830588383404</v>
       </c>
       <c r="L13">
-        <v>6.04521827825554</v>
+        <v>12.34217777072799</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>10.47907456113534</v>
       </c>
       <c r="N13">
-        <v>7.560017285778055</v>
+        <v>6.015453744594706</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>11.97978214707851</v>
+        <v>7.697377839925743</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>12.20186197835014</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.76829450562279</v>
+        <v>25.9151161676122</v>
       </c>
       <c r="C14">
-        <v>16.99924527182865</v>
+        <v>17.31915088295305</v>
       </c>
       <c r="D14">
-        <v>4.159649626584745</v>
+        <v>4.266163784072983</v>
       </c>
       <c r="E14">
-        <v>7.263412280684934</v>
+        <v>7.175699692209293</v>
       </c>
       <c r="F14">
-        <v>26.90436809714335</v>
+        <v>25.22222685278783</v>
       </c>
       <c r="G14">
-        <v>36.04401028315063</v>
+        <v>34.95311852187029</v>
       </c>
       <c r="H14">
-        <v>6.456610314661044</v>
+        <v>6.442464048852739</v>
       </c>
       <c r="J14">
-        <v>11.26276871345041</v>
+        <v>10.26488106694229</v>
       </c>
       <c r="K14">
-        <v>16.04779859398291</v>
+        <v>14.86592087393513</v>
       </c>
       <c r="L14">
-        <v>6.093156026530027</v>
+        <v>12.13138234330373</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>10.14527307220558</v>
       </c>
       <c r="N14">
-        <v>7.152113384975949</v>
+        <v>6.075722948943763</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>12.08836753647295</v>
+        <v>7.284110779624125</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>12.301798582985</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.53415427001099</v>
+        <v>25.71549718178287</v>
       </c>
       <c r="C15">
-        <v>16.90969353719786</v>
+        <v>17.24038895648903</v>
       </c>
       <c r="D15">
-        <v>4.134557766384682</v>
+        <v>4.232736873989623</v>
       </c>
       <c r="E15">
-        <v>7.266245837948139</v>
+        <v>7.183331224657756</v>
       </c>
       <c r="F15">
-        <v>26.61879305751724</v>
+        <v>25.01175637910081</v>
       </c>
       <c r="G15">
-        <v>35.59657031120904</v>
+        <v>34.38851621496069</v>
       </c>
       <c r="H15">
-        <v>6.671766315252721</v>
+        <v>6.679836730871629</v>
       </c>
       <c r="J15">
-        <v>11.18712504800547</v>
+        <v>10.30684964122196</v>
       </c>
       <c r="K15">
-        <v>15.93439433918352</v>
+        <v>14.80061049095893</v>
       </c>
       <c r="L15">
-        <v>6.104013357197012</v>
+        <v>12.09962122040757</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>10.0642695545682</v>
       </c>
       <c r="N15">
-        <v>7.044839359041998</v>
+        <v>6.08963740740238</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>12.12506621208256</v>
+        <v>7.177032707718885</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>12.32908825140538</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.70264115831429</v>
+        <v>24.9940724618302</v>
       </c>
       <c r="C16">
-        <v>16.37610268199147</v>
+        <v>16.79714672824485</v>
       </c>
       <c r="D16">
-        <v>4.092029865937593</v>
+        <v>4.170215209967046</v>
       </c>
       <c r="E16">
-        <v>7.190665583673031</v>
+        <v>7.127099388725805</v>
       </c>
       <c r="F16">
-        <v>26.30866042341547</v>
+        <v>24.96191030883597</v>
       </c>
       <c r="G16">
-        <v>34.97895459742593</v>
+        <v>33.09237231133604</v>
       </c>
       <c r="H16">
-        <v>6.469781103236643</v>
+        <v>6.473032469383989</v>
       </c>
       <c r="J16">
-        <v>11.14364768563912</v>
+        <v>10.75895105222556</v>
       </c>
       <c r="K16">
-        <v>15.97103371960873</v>
+        <v>14.97040334594023</v>
       </c>
       <c r="L16">
-        <v>6.056188995234364</v>
+        <v>12.28644550557961</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>10.06881031883342</v>
       </c>
       <c r="N16">
-        <v>6.970942173280685</v>
+        <v>6.043414822605362</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>12.21016952247989</v>
+        <v>7.116822622852016</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>12.35403483092063</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.39641482963046</v>
+        <v>24.71203760727283</v>
       </c>
       <c r="C17">
-        <v>16.03629342150539</v>
+        <v>16.51108557738651</v>
       </c>
       <c r="D17">
-        <v>4.104799456860004</v>
+        <v>4.181904194014074</v>
       </c>
       <c r="E17">
-        <v>7.117527189218823</v>
+        <v>7.058686265735103</v>
       </c>
       <c r="F17">
-        <v>26.62571524186934</v>
+        <v>25.35464877734292</v>
       </c>
       <c r="G17">
-        <v>35.35058209771101</v>
+        <v>33.12310675281402</v>
       </c>
       <c r="H17">
-        <v>5.73176217190769</v>
+        <v>5.732129714152672</v>
       </c>
       <c r="J17">
-        <v>11.26494553342252</v>
+        <v>11.07577503736344</v>
       </c>
       <c r="K17">
-        <v>16.25251095687919</v>
+        <v>15.27262416594913</v>
       </c>
       <c r="L17">
-        <v>5.989696496589532</v>
+        <v>12.54234208878419</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>10.23893511961036</v>
       </c>
       <c r="N17">
-        <v>7.132824941650945</v>
+        <v>5.97146154815606</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>12.21985383907385</v>
+        <v>7.290840496874047</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>12.32882646827434</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.49557364660315</v>
+        <v>24.79422754877436</v>
       </c>
       <c r="C18">
-        <v>15.8320777278907</v>
+        <v>16.35879197213405</v>
       </c>
       <c r="D18">
-        <v>4.169667897024008</v>
+        <v>4.255474508498178</v>
       </c>
       <c r="E18">
-        <v>7.091881702245469</v>
+        <v>7.026048938923513</v>
       </c>
       <c r="F18">
-        <v>27.50918726148648</v>
+        <v>26.20555367782749</v>
       </c>
       <c r="G18">
-        <v>36.60225302566981</v>
+        <v>34.13304501234462</v>
       </c>
       <c r="H18">
-        <v>4.46473802434254</v>
+        <v>4.464163633258182</v>
       </c>
       <c r="J18">
-        <v>11.53796096924861</v>
+        <v>11.40448363994582</v>
       </c>
       <c r="K18">
-        <v>16.77398782287613</v>
+        <v>15.74359056854525</v>
       </c>
       <c r="L18">
-        <v>5.926712372978953</v>
+        <v>12.9066955010658</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>10.57814127893915</v>
       </c>
       <c r="N18">
-        <v>7.527902828433605</v>
+        <v>5.895740847601949</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>12.17514234008567</v>
+        <v>7.699848311836686</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>12.25958390902211</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.90884219295576</v>
+        <v>25.15806061272852</v>
       </c>
       <c r="C19">
-        <v>15.75564348972021</v>
+        <v>16.33846025568149</v>
       </c>
       <c r="D19">
-        <v>4.275751849034706</v>
+        <v>4.375722480562206</v>
       </c>
       <c r="E19">
-        <v>7.185640718065967</v>
+        <v>7.104583808656638</v>
       </c>
       <c r="F19">
-        <v>28.77047840251316</v>
+        <v>27.36746462480597</v>
       </c>
       <c r="G19">
-        <v>38.44293030535847</v>
+        <v>35.76685005723685</v>
       </c>
       <c r="H19">
-        <v>2.965819714103474</v>
+        <v>2.963867336068216</v>
       </c>
       <c r="J19">
-        <v>11.91054547824218</v>
+        <v>11.75709032159289</v>
       </c>
       <c r="K19">
-        <v>17.45355260619641</v>
+        <v>16.32747553520127</v>
       </c>
       <c r="L19">
-        <v>5.911766907660218</v>
+        <v>13.34129309448872</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>11.03433603406994</v>
       </c>
       <c r="N19">
-        <v>8.093356659292123</v>
+        <v>5.861745946225621</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>12.10214196805538</v>
+        <v>8.28010112843036</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>12.16684818142042</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>27.16134922240232</v>
+        <v>26.28117836600655</v>
       </c>
       <c r="C20">
-        <v>16.04293471334329</v>
+        <v>16.69438721029072</v>
       </c>
       <c r="D20">
-        <v>4.489506135773702</v>
+        <v>4.621036820159538</v>
       </c>
       <c r="E20">
-        <v>7.580198442212613</v>
+        <v>7.469046099791356</v>
       </c>
       <c r="F20">
-        <v>31.01399857028793</v>
+        <v>29.33560839176388</v>
       </c>
       <c r="G20">
-        <v>41.80210432444216</v>
+        <v>38.99962627213426</v>
       </c>
       <c r="H20">
-        <v>1.939931814975498</v>
+        <v>1.909134447073848</v>
       </c>
       <c r="J20">
-        <v>12.54594247991261</v>
+        <v>12.16589439235871</v>
       </c>
       <c r="K20">
-        <v>18.54912981736027</v>
+        <v>17.20260391376399</v>
       </c>
       <c r="L20">
-        <v>6.02124557003502</v>
+        <v>13.9305771016029</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>11.81757345516735</v>
       </c>
       <c r="N20">
-        <v>9.087232854356142</v>
+        <v>5.936006142574519</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>11.94103221181744</v>
+        <v>9.291241620245119</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>11.99545058037123</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.8864271739174</v>
+        <v>27.75732855463376</v>
       </c>
       <c r="C21">
-        <v>17.01106496079213</v>
+        <v>17.49375227059636</v>
       </c>
       <c r="D21">
-        <v>4.626732307437736</v>
+        <v>4.833445318078542</v>
       </c>
       <c r="E21">
-        <v>7.785531572249738</v>
+        <v>7.669367315550879</v>
       </c>
       <c r="F21">
-        <v>32.23990179538255</v>
+        <v>29.96351288608283</v>
       </c>
       <c r="G21">
-        <v>43.82514413848968</v>
+        <v>42.35517691984236</v>
       </c>
       <c r="H21">
-        <v>2.308179764495124</v>
+        <v>2.220181244502298</v>
       </c>
       <c r="J21">
-        <v>12.83990019968384</v>
+        <v>11.30345321259867</v>
       </c>
       <c r="K21">
-        <v>18.89014179077675</v>
+        <v>17.18182742091944</v>
       </c>
       <c r="L21">
-        <v>6.105657842824327</v>
+        <v>13.73285260861133</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>12.09003298451168</v>
       </c>
       <c r="N21">
-        <v>9.51369394154931</v>
+        <v>6.004402017555791</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>11.71036620034085</v>
+        <v>9.695943880014449</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>11.84432109017859</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.94347666550487</v>
+        <v>28.64120151151885</v>
       </c>
       <c r="C22">
-        <v>17.61928668093938</v>
+        <v>17.97931182046104</v>
       </c>
       <c r="D22">
-        <v>4.706648136968279</v>
+        <v>4.967466850048367</v>
       </c>
       <c r="E22">
-        <v>7.896627706147188</v>
+        <v>7.78145086507184</v>
       </c>
       <c r="F22">
-        <v>32.95048376354928</v>
+        <v>30.27025031678382</v>
       </c>
       <c r="G22">
-        <v>45.00780958575007</v>
+        <v>44.49431017220085</v>
       </c>
       <c r="H22">
-        <v>2.539096589695572</v>
+        <v>2.414647341263272</v>
       </c>
       <c r="J22">
-        <v>13.01024174610964</v>
+        <v>10.68097700517858</v>
       </c>
       <c r="K22">
-        <v>19.07496177058142</v>
+        <v>17.12012708223093</v>
       </c>
       <c r="L22">
-        <v>6.152952216366629</v>
+        <v>13.56763230320723</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>12.23837716104927</v>
       </c>
       <c r="N22">
-        <v>9.743182344481772</v>
+        <v>6.043088779789061</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>11.56458948748122</v>
+        <v>9.909230986470236</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>11.75835529006521</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.38345460797165</v>
+        <v>28.19127425252636</v>
       </c>
       <c r="C23">
-        <v>17.29692758599855</v>
+        <v>17.74987258185395</v>
       </c>
       <c r="D23">
-        <v>4.664082278994349</v>
+        <v>4.887135407157948</v>
       </c>
       <c r="E23">
-        <v>7.837439363171598</v>
+        <v>7.718896658771282</v>
       </c>
       <c r="F23">
-        <v>32.57112813957303</v>
+        <v>30.15437955779398</v>
       </c>
       <c r="G23">
-        <v>44.37713215074842</v>
+        <v>43.17714957090828</v>
       </c>
       <c r="H23">
-        <v>2.416171130863986</v>
+        <v>2.312763887311729</v>
       </c>
       <c r="J23">
-        <v>12.91882920685977</v>
+        <v>11.13013916174755</v>
       </c>
       <c r="K23">
-        <v>18.97521479952788</v>
+        <v>17.17864579391445</v>
       </c>
       <c r="L23">
-        <v>6.127766683439232</v>
+        <v>13.67365218630293</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>12.1794701084557</v>
       </c>
       <c r="N23">
-        <v>9.621266884301107</v>
+        <v>6.022931308382733</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>11.64228295933398</v>
+        <v>9.798878867103532</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>11.80024285372039</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>27.18876676289617</v>
+        <v>26.30494314012438</v>
       </c>
       <c r="C24">
-        <v>16.02605683210476</v>
+        <v>16.68414891898648</v>
       </c>
       <c r="D24">
-        <v>4.50094749704455</v>
+        <v>4.633640202674825</v>
       </c>
       <c r="E24">
-        <v>7.610822423696637</v>
+        <v>7.49821314295083</v>
       </c>
       <c r="F24">
-        <v>31.13723465169375</v>
+        <v>29.45240604887355</v>
       </c>
       <c r="G24">
-        <v>41.97771935508825</v>
+        <v>39.14568094235985</v>
       </c>
       <c r="H24">
-        <v>1.943321405510106</v>
+        <v>1.912162828670982</v>
       </c>
       <c r="J24">
-        <v>12.58349927696474</v>
+        <v>12.20855203286411</v>
       </c>
       <c r="K24">
-        <v>18.62129474724313</v>
+        <v>17.26694295226664</v>
       </c>
       <c r="L24">
-        <v>6.031071829646473</v>
+        <v>13.98056790851729</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>11.86470190106339</v>
       </c>
       <c r="N24">
-        <v>9.147230090518889</v>
+        <v>5.943514295942877</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>11.93907845511056</v>
+        <v>9.352842115268366</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>11.98980881813784</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>24.71628278045983</v>
+        <v>23.96572164638924</v>
       </c>
       <c r="C25">
-        <v>14.54647117788944</v>
+        <v>15.1058861016712</v>
       </c>
       <c r="D25">
-        <v>4.320815830797993</v>
+        <v>4.449912475240589</v>
       </c>
       <c r="E25">
-        <v>7.360400065015077</v>
+        <v>7.282107045679716</v>
       </c>
       <c r="F25">
-        <v>29.60076690425601</v>
+        <v>28.17391734101666</v>
       </c>
       <c r="G25">
-        <v>39.37349710848814</v>
+        <v>36.74213807082193</v>
       </c>
       <c r="H25">
-        <v>1.708665933454054</v>
+        <v>1.68027840302742</v>
       </c>
       <c r="J25">
-        <v>12.24466436757475</v>
+        <v>12.00896303123765</v>
       </c>
       <c r="K25">
-        <v>18.2877769328448</v>
+        <v>17.1114632539399</v>
       </c>
       <c r="L25">
-        <v>5.92355266683526</v>
+        <v>14.11496410017618</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>11.37463432313553</v>
       </c>
       <c r="N25">
-        <v>8.61077466080101</v>
+        <v>5.84890644970725</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>12.26539681224376</v>
+        <v>8.814482485389053</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>12.24151410122154</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
